--- a/Fail List.xlsx
+++ b/Fail List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCECDFF-9653-42BC-BB96-DB59FD15A57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB535F5-0CF7-4AFA-B2CF-817631D4E35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8964" yWindow="660" windowWidth="10704" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>437. Path Sum III</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>2406. Divide Intervals Into Minimum Number of Groups</t>
+  </si>
+  <si>
+    <t>29. Divide Two Integers</t>
+  </si>
+  <si>
+    <t>overwhelmed</t>
   </si>
 </sst>
 </file>
@@ -426,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -545,6 +551,14 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -576,6 +590,7 @@
     <hyperlink ref="A19" r:id="rId19" display="https://leetcode.com/problems/the-number-of-the-smallest-unoccupied-chair/" xr:uid="{8A98D23F-AD48-4EE6-AD67-589F12D49074}"/>
     <hyperlink ref="A20" r:id="rId20" display="https://leetcode.com/problems/longest-common-prefix/" xr:uid="{ACED336C-0697-45A4-BAD9-FE2ACE0FB101}"/>
     <hyperlink ref="A21" r:id="rId21" display="https://leetcode.com/problems/divide-intervals-into-minimum-number-of-groups/" xr:uid="{9DDD6940-A355-4041-A74F-AEEA605DFCF3}"/>
+    <hyperlink ref="A22" r:id="rId22" display="https://leetcode.com/problems/divide-two-integers/" xr:uid="{F34A5D62-3207-4226-8515-43C57949CDC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Fail List.xlsx
+++ b/Fail List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB535F5-0CF7-4AFA-B2CF-817631D4E35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7ECC05-76D8-44D7-B15C-78C3150F19BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8964" yWindow="660" windowWidth="10704" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>437. Path Sum III</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>overwhelmed</t>
+  </si>
+  <si>
+    <t>25. Reverse Nodes in k-Group</t>
   </si>
 </sst>
 </file>
@@ -432,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -558,6 +561,14 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
         <v>23</v>
       </c>
     </row>
@@ -591,6 +602,7 @@
     <hyperlink ref="A20" r:id="rId20" display="https://leetcode.com/problems/longest-common-prefix/" xr:uid="{ACED336C-0697-45A4-BAD9-FE2ACE0FB101}"/>
     <hyperlink ref="A21" r:id="rId21" display="https://leetcode.com/problems/divide-intervals-into-minimum-number-of-groups/" xr:uid="{9DDD6940-A355-4041-A74F-AEEA605DFCF3}"/>
     <hyperlink ref="A22" r:id="rId22" display="https://leetcode.com/problems/divide-two-integers/" xr:uid="{F34A5D62-3207-4226-8515-43C57949CDC3}"/>
+    <hyperlink ref="A23" r:id="rId23" display="https://leetcode.com/problems/reverse-nodes-in-k-group/" xr:uid="{11FA26EB-9DFF-4DC4-87B5-48443DF78B6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Fail List.xlsx
+++ b/Fail List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7ECC05-76D8-44D7-B15C-78C3150F19BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A14BE5-3C4B-4267-9F5A-8A5A1BC6D970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>437. Path Sum III</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>25. Reverse Nodes in k-Group</t>
+  </si>
+  <si>
+    <t>148. Sort List</t>
+  </si>
+  <si>
+    <t>146. LRU Cache</t>
+  </si>
+  <si>
+    <t>381. Insert Delete GetRandom O(1) - Duplicates allowed</t>
   </si>
 </sst>
 </file>
@@ -435,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -569,6 +578,30 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
         <v>23</v>
       </c>
     </row>
@@ -603,6 +636,9 @@
     <hyperlink ref="A21" r:id="rId21" display="https://leetcode.com/problems/divide-intervals-into-minimum-number-of-groups/" xr:uid="{9DDD6940-A355-4041-A74F-AEEA605DFCF3}"/>
     <hyperlink ref="A22" r:id="rId22" display="https://leetcode.com/problems/divide-two-integers/" xr:uid="{F34A5D62-3207-4226-8515-43C57949CDC3}"/>
     <hyperlink ref="A23" r:id="rId23" display="https://leetcode.com/problems/reverse-nodes-in-k-group/" xr:uid="{11FA26EB-9DFF-4DC4-87B5-48443DF78B6F}"/>
+    <hyperlink ref="A24" r:id="rId24" display="https://leetcode.com/problems/sort-list/" xr:uid="{5ACF2DCD-36CB-41B3-9BF1-C1E9F0D9A74C}"/>
+    <hyperlink ref="A25" r:id="rId25" display="https://leetcode.com/problems/lru-cache/" xr:uid="{50689F06-9B52-4828-A6A4-4FFC3AAC9CE8}"/>
+    <hyperlink ref="A26" r:id="rId26" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed/" xr:uid="{FDEBFAFD-2BCC-40F6-BD23-772610FE9241}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Fail List.xlsx
+++ b/Fail List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A14BE5-3C4B-4267-9F5A-8A5A1BC6D970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3830E706-EAA2-4068-A185-707275129948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>437. Path Sum III</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>381. Insert Delete GetRandom O(1) - Duplicates allowed</t>
+  </si>
+  <si>
+    <t>895. Maximum Frequency Stack</t>
+  </si>
+  <si>
+    <t>432. All O`one Data Structure</t>
+  </si>
+  <si>
+    <t>222. Count Complete Tree Nodes</t>
   </si>
 </sst>
 </file>
@@ -444,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -603,6 +612,21 @@
       </c>
       <c r="B26" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -639,6 +663,9 @@
     <hyperlink ref="A24" r:id="rId24" display="https://leetcode.com/problems/sort-list/" xr:uid="{5ACF2DCD-36CB-41B3-9BF1-C1E9F0D9A74C}"/>
     <hyperlink ref="A25" r:id="rId25" display="https://leetcode.com/problems/lru-cache/" xr:uid="{50689F06-9B52-4828-A6A4-4FFC3AAC9CE8}"/>
     <hyperlink ref="A26" r:id="rId26" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed/" xr:uid="{FDEBFAFD-2BCC-40F6-BD23-772610FE9241}"/>
+    <hyperlink ref="A27" r:id="rId27" display="https://leetcode.com/problems/maximum-frequency-stack/" xr:uid="{9AC377BD-C54E-4B11-AC8B-2668C36D937E}"/>
+    <hyperlink ref="A28" r:id="rId28" display="https://leetcode.com/problems/all-oone-data-structure/" xr:uid="{D5C86C18-62F8-4C70-93D3-BF2BB5ED2488}"/>
+    <hyperlink ref="A29" r:id="rId29" display="https://leetcode.com/problems/count-complete-tree-nodes/" xr:uid="{03C7A425-BF54-4382-9F8E-A4E0850A603C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Fail List.xlsx
+++ b/Fail List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Programs\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3830E706-EAA2-4068-A185-707275129948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36561909-34F2-4968-8A66-8FB7AFC1ED25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>437. Path Sum III</t>
   </si>
@@ -118,17 +118,20 @@
   </si>
   <si>
     <t>222. Count Complete Tree Nodes</t>
+  </si>
+  <si>
+    <t>772. Basic Calculator III</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -136,13 +139,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -174,8 +177,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -453,110 +456,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.88671875" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="55.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -564,17 +567,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -582,7 +585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -590,7 +593,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -598,7 +601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -606,7 +609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -614,19 +617,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +674,9 @@
     <hyperlink ref="A27" r:id="rId27" display="https://leetcode.com/problems/maximum-frequency-stack/" xr:uid="{9AC377BD-C54E-4B11-AC8B-2668C36D937E}"/>
     <hyperlink ref="A28" r:id="rId28" display="https://leetcode.com/problems/all-oone-data-structure/" xr:uid="{D5C86C18-62F8-4C70-93D3-BF2BB5ED2488}"/>
     <hyperlink ref="A29" r:id="rId29" display="https://leetcode.com/problems/count-complete-tree-nodes/" xr:uid="{03C7A425-BF54-4382-9F8E-A4E0850A603C}"/>
+    <hyperlink ref="A30" r:id="rId30" display="https://leetcode.com/problems/basic-calculator-iii/" xr:uid="{3543A0F0-16A3-4FFA-9A75-83C53066CAAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/Fail List.xlsx
+++ b/Fail List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Programs\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36561909-34F2-4968-8A66-8FB7AFC1ED25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94ABB66-6A8C-4A69-B281-62B1DA3BF451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>437. Path Sum III</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>772. Basic Calculator III</t>
+  </si>
+  <si>
+    <t>769. Max Chunks To Make Sorted</t>
   </si>
 </sst>
 </file>
@@ -456,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -635,6 +638,11 @@
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -675,8 +683,9 @@
     <hyperlink ref="A28" r:id="rId28" display="https://leetcode.com/problems/all-oone-data-structure/" xr:uid="{D5C86C18-62F8-4C70-93D3-BF2BB5ED2488}"/>
     <hyperlink ref="A29" r:id="rId29" display="https://leetcode.com/problems/count-complete-tree-nodes/" xr:uid="{03C7A425-BF54-4382-9F8E-A4E0850A603C}"/>
     <hyperlink ref="A30" r:id="rId30" display="https://leetcode.com/problems/basic-calculator-iii/" xr:uid="{3543A0F0-16A3-4FFA-9A75-83C53066CAAE}"/>
+    <hyperlink ref="A31" r:id="rId31" display="https://leetcode.com/problems/max-chunks-to-make-sorted/" xr:uid="{12B06FA0-AFA4-4D88-A7B5-EA9FC150955C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
--- a/Fail List.xlsx
+++ b/Fail List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Programs\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94ABB66-6A8C-4A69-B281-62B1DA3BF451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECD1096-F74C-4CBF-9CAE-F6B9814A11AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="3225" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>437. Path Sum III</t>
   </si>
@@ -84,9 +84,6 @@
     <t>1942. The Number of the Smallest Unoccupied Chair</t>
   </si>
   <si>
-    <t>hint</t>
-  </si>
-  <si>
     <t>14. Longest Common Prefix</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>29. Divide Two Integers</t>
   </si>
   <si>
-    <t>overwhelmed</t>
-  </si>
-  <si>
     <t>25. Reverse Nodes in k-Group</t>
   </si>
   <si>
@@ -124,6 +118,18 @@
   </si>
   <si>
     <t>769. Max Chunks To Make Sorted</t>
+  </si>
+  <si>
+    <t>907. Sum of Subarray Minimums</t>
+  </si>
+  <si>
+    <t>1504. Count Submatrices With All Ones</t>
+  </si>
+  <si>
+    <t>862. Shortest Subarray with Sum at Least K</t>
+  </si>
+  <si>
+    <t>2071. Maximum Number of Tasks You Can Assign</t>
   </si>
 </sst>
 </file>
@@ -459,17 +465,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="55.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -552,106 +557,103 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{4029F25F-DDAF-485F-974D-568A8540426D}">
-      <formula1>"hint, overwhelmed"</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://leetcode.com/problems/path-sum-iii/" xr:uid="{761DE497-6B54-405F-BE2E-2875DB06ED0F}"/>
     <hyperlink ref="A2" r:id="rId2" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{663C2527-B49F-4C18-A267-9BFB4A8F91E2}"/>
@@ -684,8 +686,12 @@
     <hyperlink ref="A29" r:id="rId29" display="https://leetcode.com/problems/count-complete-tree-nodes/" xr:uid="{03C7A425-BF54-4382-9F8E-A4E0850A603C}"/>
     <hyperlink ref="A30" r:id="rId30" display="https://leetcode.com/problems/basic-calculator-iii/" xr:uid="{3543A0F0-16A3-4FFA-9A75-83C53066CAAE}"/>
     <hyperlink ref="A31" r:id="rId31" display="https://leetcode.com/problems/max-chunks-to-make-sorted/" xr:uid="{12B06FA0-AFA4-4D88-A7B5-EA9FC150955C}"/>
+    <hyperlink ref="A32" r:id="rId32" display="https://leetcode.com/problems/sum-of-subarray-minimums/" xr:uid="{830EE627-053F-480A-88FF-21F9C761DED7}"/>
+    <hyperlink ref="A33" r:id="rId33" display="https://leetcode.com/problems/count-submatrices-with-all-ones/" xr:uid="{9CBB09D2-235B-4BF4-B55F-91033CF20C94}"/>
+    <hyperlink ref="A34" r:id="rId34" display="https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k/" xr:uid="{397DA7C4-9277-48BA-8C93-787B535BB1E6}"/>
+    <hyperlink ref="A35" r:id="rId35" display="https://leetcode.com/problems/maximum-number-of-tasks-you-can-assign/" xr:uid="{B305E2EC-8347-4584-8108-59A9BB391A65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId32"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
--- a/Fail List.xlsx
+++ b/Fail List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Programs\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECD1096-F74C-4CBF-9CAE-F6B9814A11AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65DE41C-24D6-4E6E-9F58-CB2881B0DAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="3225" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>437. Path Sum III</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>2071. Maximum Number of Tasks You Can Assign</t>
+  </si>
+  <si>
+    <t>269. Alien Dictionary</t>
+  </si>
+  <si>
+    <t>936. Stamping The Sequence</t>
   </si>
 </sst>
 </file>
@@ -465,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -650,6 +656,16 @@
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -690,8 +706,10 @@
     <hyperlink ref="A33" r:id="rId33" display="https://leetcode.com/problems/count-submatrices-with-all-ones/" xr:uid="{9CBB09D2-235B-4BF4-B55F-91033CF20C94}"/>
     <hyperlink ref="A34" r:id="rId34" display="https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k/" xr:uid="{397DA7C4-9277-48BA-8C93-787B535BB1E6}"/>
     <hyperlink ref="A35" r:id="rId35" display="https://leetcode.com/problems/maximum-number-of-tasks-you-can-assign/" xr:uid="{B305E2EC-8347-4584-8108-59A9BB391A65}"/>
+    <hyperlink ref="A36" r:id="rId36" display="https://leetcode.com/problems/alien-dictionary/" xr:uid="{8E98306B-9BEB-4BFA-BA0B-782D49C11F79}"/>
+    <hyperlink ref="A37" r:id="rId37" display="https://leetcode.com/problems/stamping-the-sequence/" xr:uid="{25DD7000-1BBA-4679-952C-7676561572C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
--- a/Fail List.xlsx
+++ b/Fail List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Programs\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65DE41C-24D6-4E6E-9F58-CB2881B0DAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD82ACF-1DE3-4BBC-9CD7-56CBECB357E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="3225" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>437. Path Sum III</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>936. Stamping The Sequence</t>
+  </si>
+  <si>
+    <t>126. Word Ladder II</t>
   </si>
 </sst>
 </file>
@@ -471,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -666,6 +669,11 @@
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -708,8 +716,9 @@
     <hyperlink ref="A35" r:id="rId35" display="https://leetcode.com/problems/maximum-number-of-tasks-you-can-assign/" xr:uid="{B305E2EC-8347-4584-8108-59A9BB391A65}"/>
     <hyperlink ref="A36" r:id="rId36" display="https://leetcode.com/problems/alien-dictionary/" xr:uid="{8E98306B-9BEB-4BFA-BA0B-782D49C11F79}"/>
     <hyperlink ref="A37" r:id="rId37" display="https://leetcode.com/problems/stamping-the-sequence/" xr:uid="{25DD7000-1BBA-4679-952C-7676561572C3}"/>
+    <hyperlink ref="A38" r:id="rId38" display="https://leetcode.com/problems/word-ladder-ii/" xr:uid="{6A185B9B-16D9-430F-B627-E963F6F88F67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId38"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
--- a/Fail List.xlsx
+++ b/Fail List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Programs\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD82ACF-1DE3-4BBC-9CD7-56CBECB357E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDB3017-E721-4E52-9F84-E655BDD6793A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="3225" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>437. Path Sum III</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>126. Word Ladder II</t>
+  </si>
+  <si>
+    <t>32. Longest Valid Parentheses</t>
   </si>
 </sst>
 </file>
@@ -474,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -674,6 +677,11 @@
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -717,8 +725,9 @@
     <hyperlink ref="A36" r:id="rId36" display="https://leetcode.com/problems/alien-dictionary/" xr:uid="{8E98306B-9BEB-4BFA-BA0B-782D49C11F79}"/>
     <hyperlink ref="A37" r:id="rId37" display="https://leetcode.com/problems/stamping-the-sequence/" xr:uid="{25DD7000-1BBA-4679-952C-7676561572C3}"/>
     <hyperlink ref="A38" r:id="rId38" display="https://leetcode.com/problems/word-ladder-ii/" xr:uid="{6A185B9B-16D9-430F-B627-E963F6F88F67}"/>
+    <hyperlink ref="A39" r:id="rId39" display="https://leetcode.com/problems/longest-valid-parentheses/" xr:uid="{44BA0D4F-30F2-4868-B47C-CACF2D77129C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId39"/>
+  <pageSetup orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
--- a/Fail List.xlsx
+++ b/Fail List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Programs\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDB3017-E721-4E52-9F84-E655BDD6793A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285D1CC5-CD80-4051-A5AC-486B43320745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="3225" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>437. Path Sum III</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>32. Longest Valid Parentheses</t>
+  </si>
+  <si>
+    <t>879. Profitable Schemes</t>
   </si>
 </sst>
 </file>
@@ -477,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -682,6 +685,11 @@
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -726,8 +734,9 @@
     <hyperlink ref="A37" r:id="rId37" display="https://leetcode.com/problems/stamping-the-sequence/" xr:uid="{25DD7000-1BBA-4679-952C-7676561572C3}"/>
     <hyperlink ref="A38" r:id="rId38" display="https://leetcode.com/problems/word-ladder-ii/" xr:uid="{6A185B9B-16D9-430F-B627-E963F6F88F67}"/>
     <hyperlink ref="A39" r:id="rId39" display="https://leetcode.com/problems/longest-valid-parentheses/" xr:uid="{44BA0D4F-30F2-4868-B47C-CACF2D77129C}"/>
+    <hyperlink ref="A40" r:id="rId40" display="https://leetcode.com/problems/profitable-schemes/" xr:uid="{BBACF0C5-C95B-4404-83E0-AD000636DD7A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId40"/>
+  <pageSetup orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
--- a/Fail List.xlsx
+++ b/Fail List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Programs\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285D1CC5-CD80-4051-A5AC-486B43320745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54CFAFF-B519-441E-9275-E6A4B522F099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="3225" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>437. Path Sum III</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>879. Profitable Schemes</t>
+  </si>
+  <si>
+    <t>312. Burst Balloons</t>
+  </si>
+  <si>
+    <t>546. Remove Boxes</t>
   </si>
 </sst>
 </file>
@@ -480,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -690,6 +696,16 @@
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -735,8 +751,10 @@
     <hyperlink ref="A38" r:id="rId38" display="https://leetcode.com/problems/word-ladder-ii/" xr:uid="{6A185B9B-16D9-430F-B627-E963F6F88F67}"/>
     <hyperlink ref="A39" r:id="rId39" display="https://leetcode.com/problems/longest-valid-parentheses/" xr:uid="{44BA0D4F-30F2-4868-B47C-CACF2D77129C}"/>
     <hyperlink ref="A40" r:id="rId40" display="https://leetcode.com/problems/profitable-schemes/" xr:uid="{BBACF0C5-C95B-4404-83E0-AD000636DD7A}"/>
+    <hyperlink ref="A41" r:id="rId41" display="https://leetcode.com/problems/burst-balloons/" xr:uid="{2CAFAAEE-67FD-408B-9C39-D46D29AFCA38}"/>
+    <hyperlink ref="A42" r:id="rId42" display="https://leetcode.com/problems/remove-boxes/" xr:uid="{B16C4F30-4A95-4936-8A06-A8AAA515FC27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId41"/>
+  <pageSetup orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
--- a/Fail List.xlsx
+++ b/Fail List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Programs\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54CFAFF-B519-441E-9275-E6A4B522F099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA057D6-B41E-4C2B-ADDA-39D9A1F601C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3225" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21740" yWindow="2190" windowWidth="15480" windowHeight="10210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>437. Path Sum III</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>714. Best Time to Buy and Sell Stock with Transaction Fee</t>
-  </si>
-  <si>
-    <t>1122. Relative Sort Array</t>
   </si>
   <si>
     <t>136. Single Number</t>
@@ -486,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -498,263 +495,223 @@
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://leetcode.com/problems/path-sum-iii/" xr:uid="{761DE497-6B54-405F-BE2E-2875DB06ED0F}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{663C2527-B49F-4C18-A267-9BFB4A8F91E2}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://leetcode.com/problems/reorder-routes-to-make-all-paths-lead-to-the-city-zero/" xr:uid="{E36A41F9-2DFE-49EE-B961-59C11E59D15C}"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://leetcode.com/problems/replace-words/" xr:uid="{900A955B-FEF9-4544-93A4-0D4FC0D19F4F}"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://leetcode.com/problems/domino-and-tromino-tiling/" xr:uid="{3ED04E7A-D6A9-463F-AC35-0B66C21476D6}"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-transaction-fee/" xr:uid="{829BD961-1CB2-4A6E-AD9B-B082DA8ADC83}"/>
-    <hyperlink ref="A7" r:id="rId7" display="https://leetcode.com/problems/relative-sort-array/" xr:uid="{1DD579F0-2CE1-44A4-99AC-3BA241C45FFB}"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://leetcode.com/problems/single-number/" xr:uid="{06350872-C364-48CF-976F-6E1431626CF2}"/>
-    <hyperlink ref="A9" r:id="rId9" display="https://leetcode.com/problems/non-overlapping-intervals/" xr:uid="{E8276F2A-0BD1-4E06-BCE7-1324813E24B5}"/>
-    <hyperlink ref="A10" r:id="rId10" display="https://leetcode.com/problems/daily-temperatures/" xr:uid="{2629E69E-A61C-4373-B30D-1FFCB6099CF6}"/>
-    <hyperlink ref="A11" r:id="rId11" display="https://leetcode.com/problems/ipo/" xr:uid="{199DA7A3-A8BD-4344-BC96-3A27F52D0BA1}"/>
-    <hyperlink ref="A12" r:id="rId12" display="https://leetcode.com/problems/patching-array/" xr:uid="{7441588F-0B6E-440F-A892-B077F3B264EE}"/>
-    <hyperlink ref="A13" r:id="rId13" display="https://leetcode.com/problems/insert-delete-getrandom-o1/" xr:uid="{379335BF-250B-40F4-8816-4FF315AA54A1}"/>
-    <hyperlink ref="A14" r:id="rId14" display="https://leetcode.com/problems/magnetic-force-between-two-balls/" xr:uid="{B51AAAB9-7746-4D56-9E04-DB547F08E098}"/>
-    <hyperlink ref="A15" r:id="rId15" display="https://leetcode.com/problems/minimum-number-of-days-to-make-m-bouquets/" xr:uid="{3FBEC7C8-C4A2-4C7C-A17C-6A56AA03DDEA}"/>
-    <hyperlink ref="A16" r:id="rId16" display="https://leetcode.com/problems/minimum-number-of-k-consecutive-bit-flips/" xr:uid="{24085185-9B6A-40B6-920D-75436688F7C8}"/>
-    <hyperlink ref="A17" r:id="rId17" display="https://leetcode.com/problems/trapping-rain-water/" xr:uid="{F303489E-574F-409A-923F-A52EA608EF6A}"/>
-    <hyperlink ref="A18" r:id="rId18" display="https://leetcode.com/problems/maximum-width-ramp/" xr:uid="{035D554D-8CDB-43BC-8C1A-4447A8F2D2C6}"/>
-    <hyperlink ref="A19" r:id="rId19" display="https://leetcode.com/problems/the-number-of-the-smallest-unoccupied-chair/" xr:uid="{8A98D23F-AD48-4EE6-AD67-589F12D49074}"/>
-    <hyperlink ref="A20" r:id="rId20" display="https://leetcode.com/problems/longest-common-prefix/" xr:uid="{ACED336C-0697-45A4-BAD9-FE2ACE0FB101}"/>
-    <hyperlink ref="A21" r:id="rId21" display="https://leetcode.com/problems/divide-intervals-into-minimum-number-of-groups/" xr:uid="{9DDD6940-A355-4041-A74F-AEEA605DFCF3}"/>
-    <hyperlink ref="A22" r:id="rId22" display="https://leetcode.com/problems/divide-two-integers/" xr:uid="{F34A5D62-3207-4226-8515-43C57949CDC3}"/>
-    <hyperlink ref="A23" r:id="rId23" display="https://leetcode.com/problems/reverse-nodes-in-k-group/" xr:uid="{11FA26EB-9DFF-4DC4-87B5-48443DF78B6F}"/>
-    <hyperlink ref="A24" r:id="rId24" display="https://leetcode.com/problems/sort-list/" xr:uid="{5ACF2DCD-36CB-41B3-9BF1-C1E9F0D9A74C}"/>
-    <hyperlink ref="A25" r:id="rId25" display="https://leetcode.com/problems/lru-cache/" xr:uid="{50689F06-9B52-4828-A6A4-4FFC3AAC9CE8}"/>
-    <hyperlink ref="A26" r:id="rId26" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed/" xr:uid="{FDEBFAFD-2BCC-40F6-BD23-772610FE9241}"/>
-    <hyperlink ref="A27" r:id="rId27" display="https://leetcode.com/problems/maximum-frequency-stack/" xr:uid="{9AC377BD-C54E-4B11-AC8B-2668C36D937E}"/>
-    <hyperlink ref="A28" r:id="rId28" display="https://leetcode.com/problems/all-oone-data-structure/" xr:uid="{D5C86C18-62F8-4C70-93D3-BF2BB5ED2488}"/>
-    <hyperlink ref="A29" r:id="rId29" display="https://leetcode.com/problems/count-complete-tree-nodes/" xr:uid="{03C7A425-BF54-4382-9F8E-A4E0850A603C}"/>
-    <hyperlink ref="A30" r:id="rId30" display="https://leetcode.com/problems/basic-calculator-iii/" xr:uid="{3543A0F0-16A3-4FFA-9A75-83C53066CAAE}"/>
-    <hyperlink ref="A31" r:id="rId31" display="https://leetcode.com/problems/max-chunks-to-make-sorted/" xr:uid="{12B06FA0-AFA4-4D88-A7B5-EA9FC150955C}"/>
-    <hyperlink ref="A32" r:id="rId32" display="https://leetcode.com/problems/sum-of-subarray-minimums/" xr:uid="{830EE627-053F-480A-88FF-21F9C761DED7}"/>
-    <hyperlink ref="A33" r:id="rId33" display="https://leetcode.com/problems/count-submatrices-with-all-ones/" xr:uid="{9CBB09D2-235B-4BF4-B55F-91033CF20C94}"/>
-    <hyperlink ref="A34" r:id="rId34" display="https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k/" xr:uid="{397DA7C4-9277-48BA-8C93-787B535BB1E6}"/>
-    <hyperlink ref="A35" r:id="rId35" display="https://leetcode.com/problems/maximum-number-of-tasks-you-can-assign/" xr:uid="{B305E2EC-8347-4584-8108-59A9BB391A65}"/>
-    <hyperlink ref="A36" r:id="rId36" display="https://leetcode.com/problems/alien-dictionary/" xr:uid="{8E98306B-9BEB-4BFA-BA0B-782D49C11F79}"/>
-    <hyperlink ref="A37" r:id="rId37" display="https://leetcode.com/problems/stamping-the-sequence/" xr:uid="{25DD7000-1BBA-4679-952C-7676561572C3}"/>
-    <hyperlink ref="A38" r:id="rId38" display="https://leetcode.com/problems/word-ladder-ii/" xr:uid="{6A185B9B-16D9-430F-B627-E963F6F88F67}"/>
-    <hyperlink ref="A39" r:id="rId39" display="https://leetcode.com/problems/longest-valid-parentheses/" xr:uid="{44BA0D4F-30F2-4868-B47C-CACF2D77129C}"/>
-    <hyperlink ref="A40" r:id="rId40" display="https://leetcode.com/problems/profitable-schemes/" xr:uid="{BBACF0C5-C95B-4404-83E0-AD000636DD7A}"/>
-    <hyperlink ref="A41" r:id="rId41" display="https://leetcode.com/problems/burst-balloons/" xr:uid="{2CAFAAEE-67FD-408B-9C39-D46D29AFCA38}"/>
-    <hyperlink ref="A42" r:id="rId42" display="https://leetcode.com/problems/remove-boxes/" xr:uid="{B16C4F30-4A95-4936-8A06-A8AAA515FC27}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId43"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Fail List.xlsx
+++ b/Fail List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Programs\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA057D6-B41E-4C2B-ADDA-39D9A1F601C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3487BF54-8B37-4B6B-8D99-6C49C7AE1E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21740" yWindow="2190" windowWidth="15480" windowHeight="10210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
-  <si>
-    <t>437. Path Sum III</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>236. Lowest Common Ancestor of a Binary Tree</t>
   </si>
@@ -67,9 +64,6 @@
   </si>
   <si>
     <t>1482. Minimum Number of Days to Make m Bouquets</t>
-  </si>
-  <si>
-    <t>995. Minimum Number of K Consecutive Bit Flips</t>
   </si>
   <si>
     <t>42. Trapping Rain Water</t>
@@ -483,37 +477,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="55.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1">
-        <v>1.31</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B2">
-        <v>1.31</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>2.1</v>
@@ -521,192 +515,188 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Fail List.xlsx
+++ b/Fail List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Programs\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3487BF54-8B37-4B6B-8D99-6C49C7AE1E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8F112C-421D-4F94-8025-95EAD3689068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22760" yWindow="1620" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>236. Lowest Common Ancestor of a Binary Tree</t>
   </si>
@@ -36,39 +36,18 @@
     <t>648. Replace Words</t>
   </si>
   <si>
-    <t>790. Domino and Tromino Tiling</t>
-  </si>
-  <si>
-    <t>714. Best Time to Buy and Sell Stock with Transaction Fee</t>
-  </si>
-  <si>
-    <t>136. Single Number</t>
-  </si>
-  <si>
     <t>435. Non-overlapping Intervals</t>
   </si>
   <si>
     <t>739. Daily Temperatures</t>
   </si>
   <si>
-    <t>502. IPO</t>
-  </si>
-  <si>
     <t>330. Patching Array</t>
   </si>
   <si>
-    <t>380. Insert Delete GetRandom O(1)</t>
-  </si>
-  <si>
-    <t>1552. Magnetic Force Between Two Balls</t>
-  </si>
-  <si>
     <t>1482. Minimum Number of Days to Make m Bouquets</t>
   </si>
   <si>
-    <t>42. Trapping Rain Water</t>
-  </si>
-  <si>
     <t>962. Maximum Width Ramp</t>
   </si>
   <si>
@@ -84,18 +63,9 @@
     <t>29. Divide Two Integers</t>
   </si>
   <si>
-    <t>25. Reverse Nodes in k-Group</t>
-  </si>
-  <si>
     <t>148. Sort List</t>
   </si>
   <si>
-    <t>146. LRU Cache</t>
-  </si>
-  <si>
-    <t>381. Insert Delete GetRandom O(1) - Duplicates allowed</t>
-  </si>
-  <si>
     <t>895. Maximum Frequency Stack</t>
   </si>
   <si>
@@ -105,9 +75,6 @@
     <t>222. Count Complete Tree Nodes</t>
   </si>
   <si>
-    <t>772. Basic Calculator III</t>
-  </si>
-  <si>
     <t>769. Max Chunks To Make Sorted</t>
   </si>
   <si>
@@ -115,9 +82,6 @@
   </si>
   <si>
     <t>1504. Count Submatrices With All Ones</t>
-  </si>
-  <si>
-    <t>862. Shortest Subarray with Sum at Least K</t>
   </si>
   <si>
     <t>2071. Maximum Number of Tasks You Can Assign</t>
@@ -477,16 +441,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.81640625" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="55.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -494,44 +458,38 @@
         <v>13</v>
       </c>
       <c r="B1">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>2.2000000000000002</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -541,161 +499,101 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/Fail List.xlsx
+++ b/Fail List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Programs\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8F112C-421D-4F94-8025-95EAD3689068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24370E9-DB0D-4E9C-9677-6F87153E0692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22760" yWindow="1620" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="11210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>236. Lowest Common Ancestor of a Binary Tree</t>
   </si>
@@ -33,9 +33,6 @@
     <t>1466. Reorder Routes to Make All Paths Lead to the City Zero</t>
   </si>
   <si>
-    <t>648. Replace Words</t>
-  </si>
-  <si>
     <t>435. Non-overlapping Intervals</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>330. Patching Array</t>
   </si>
   <si>
-    <t>1482. Minimum Number of Days to Make m Bouquets</t>
-  </si>
-  <si>
     <t>962. Maximum Width Ramp</t>
   </si>
   <si>
@@ -57,36 +51,15 @@
     <t>14. Longest Common Prefix</t>
   </si>
   <si>
-    <t>2406. Divide Intervals Into Minimum Number of Groups</t>
-  </si>
-  <si>
     <t>29. Divide Two Integers</t>
   </si>
   <si>
-    <t>148. Sort List</t>
-  </si>
-  <si>
-    <t>895. Maximum Frequency Stack</t>
-  </si>
-  <si>
     <t>432. All O`one Data Structure</t>
   </si>
   <si>
-    <t>222. Count Complete Tree Nodes</t>
-  </si>
-  <si>
-    <t>769. Max Chunks To Make Sorted</t>
-  </si>
-  <si>
-    <t>907. Sum of Subarray Minimums</t>
-  </si>
-  <si>
     <t>1504. Count Submatrices With All Ones</t>
   </si>
   <si>
-    <t>2071. Maximum Number of Tasks You Can Assign</t>
-  </si>
-  <si>
     <t>269. Alien Dictionary</t>
   </si>
   <si>
@@ -94,9 +67,6 @@
   </si>
   <si>
     <t>126. Word Ladder II</t>
-  </si>
-  <si>
-    <t>32. Longest Valid Parentheses</t>
   </si>
   <si>
     <t>879. Profitable Schemes</t>
@@ -441,159 +411,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="55.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B1">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>2.6</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>2.8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/Fail List.xlsx
+++ b/Fail List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Programs\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24370E9-DB0D-4E9C-9677-6F87153E0692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21043B11-36F9-419D-A979-9596BA351F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="11210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="2170" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,57 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>236. Lowest Common Ancestor of a Binary Tree</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>1466. Reorder Routes to Make All Paths Lead to the City Zero</t>
   </si>
   <si>
-    <t>435. Non-overlapping Intervals</t>
-  </si>
-  <si>
     <t>739. Daily Temperatures</t>
   </si>
   <si>
-    <t>330. Patching Array</t>
-  </si>
-  <si>
-    <t>962. Maximum Width Ramp</t>
-  </si>
-  <si>
     <t>1942. The Number of the Smallest Unoccupied Chair</t>
   </si>
   <si>
     <t>14. Longest Common Prefix</t>
   </si>
   <si>
-    <t>29. Divide Two Integers</t>
-  </si>
-  <si>
     <t>432. All O`one Data Structure</t>
   </si>
   <si>
-    <t>1504. Count Submatrices With All Ones</t>
-  </si>
-  <si>
-    <t>269. Alien Dictionary</t>
-  </si>
-  <si>
-    <t>936. Stamping The Sequence</t>
-  </si>
-  <si>
     <t>126. Word Ladder II</t>
   </si>
   <si>
     <t>879. Profitable Schemes</t>
-  </si>
-  <si>
-    <t>312. Burst Balloons</t>
-  </si>
-  <si>
-    <t>546. Remove Boxes</t>
   </si>
 </sst>
 </file>
@@ -411,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -425,93 +395,40 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1">
-        <v>2.9</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>2.11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Fail List.xlsx
+++ b/Fail List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Programs\My_LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21043B11-36F9-419D-A979-9596BA351F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1AE045-FC30-447E-95FE-EDADB434F4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="2170" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24070" yWindow="2010" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>1466. Reorder Routes to Make All Paths Lead to the City Zero</t>
   </si>
   <si>
     <t>739. Daily Temperatures</t>
-  </si>
-  <si>
-    <t>1942. The Number of the Smallest Unoccupied Chair</t>
   </si>
   <si>
     <t>14. Longest Common Prefix</t>
@@ -42,10 +39,7 @@
     <t>432. All O`one Data Structure</t>
   </si>
   <si>
-    <t>126. Word Ladder II</t>
-  </si>
-  <si>
-    <t>879. Profitable Schemes</t>
+    <t>2467. Most Profitable Path in a Tree</t>
   </si>
 </sst>
 </file>
@@ -381,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -393,47 +387,37 @@
     <col min="2" max="2" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1">
-        <v>2.16</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" display="https://leetcode.com/problems/most-profitable-path-in-a-tree/" xr:uid="{FDDD8E2C-935E-4539-9BA3-735B63E8D06A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>